--- a/info/План развития frontend разработчика.xlsx
+++ b/info/План развития frontend разработчика.xlsx
@@ -1,42 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr hidePivotFieldList="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\prog\Academia-top-traning-rep\Academia-top-traning-rep\info\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03D3EDE-6657-4AB4-A346-3A546D47D5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="4980" yWindow="4980" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Лист6" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист6" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица11" hidden="1">Таблица1[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица21" hidden="1">Таблица2</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица1" hidden="1">Таблица1[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица2" hidden="1">Таблица2</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{923E9809-C5AD-4625-8585-1A3B03BDD2C5}" keepAlive="1" name="ThisWorkbookDataModel" description="Модель данных" type="5" background="1" minRefreshableVersion="5" refreshedVersion="7">
+  <connection id="1" xr16:uid="{923E9809-C5AD-4625-8585-1A3B03BDD2C5}" keepAlive="1" name="ThisWorkbookDataModel" description="Модель данных" type="5" refreshedVersion="7" minRefreshableVersion="5" background="1">
     <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
-    <olapPr rowDrillCount="1000" sendLocale="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
-  <connection id="2" xr16:uid="{6D7A2611-B751-47E5-96A4-56A0EC955A26}" name="WorksheetConnection_План развития frontend разработчика.xlsx!Таблица1" type="102" minRefreshableVersion="5" refreshedVersion="7">
+  <connection id="2" xr16:uid="{6D7A2611-B751-47E5-96A4-56A0EC955A26}" name="WorksheetConnection_План развития frontend разработчика.xlsx!Таблица1" type="102" refreshedVersion="7" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Таблица1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица11"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица1"/>
         </x15:connection>
       </ext>
     </extLst>
   </connection>
-  <connection id="3" xr16:uid="{1F00D069-98C5-4C4D-9B35-BA1A687C5A80}" name="WorksheetConnection_План развития frontend разработчика.xlsx!Таблица2" type="102" minRefreshableVersion="5" refreshedVersion="7">
+  <connection id="3" xr16:uid="{1F00D069-98C5-4C4D-9B35-BA1A687C5A80}" name="WorksheetConnection_План развития frontend разработчика.xlsx!Таблица2" type="102" refreshedVersion="7" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Таблица2">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица21"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица2"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -45,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="121">
   <si>
     <t>Шаг</t>
   </si>
@@ -53,46 +60,46 @@
     <t>Ресурс</t>
   </si>
   <si>
-    <t xml:space="preserve">START Я ничего не знаю!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Развиваться как фронтенд специалист</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Учим устройство  сайта</t>
+    <t>START Я ничего не знаю!</t>
+  </si>
+  <si>
+    <t>Развиваться как фронтенд специалист</t>
+  </si>
+  <si>
+    <t>Учим устройство  сайта</t>
   </si>
   <si>
     <t>https://youtu.be/LQb0ocMVAOE</t>
   </si>
   <si>
-    <t xml:space="preserve">Узнаем что такое верстка</t>
+    <t>Узнаем что такое верстка</t>
   </si>
   <si>
     <t>https://youtu.be/BsQd9uOHjMM</t>
   </si>
   <si>
-    <t xml:space="preserve">Узнаем кто такой фронтенд разработчик</t>
+    <t>Узнаем кто такой фронтенд разработчик</t>
   </si>
   <si>
     <t>https://youtu.be/QXacSDnRm8M</t>
   </si>
   <si>
-    <t xml:space="preserve">Выбираем  редактора кода</t>
+    <t>Выбираем  редактора кода</t>
   </si>
   <si>
     <t>https://youtu.be/nxCLXMBl4e4</t>
   </si>
   <si>
-    <t xml:space="preserve">Учим основные HTML-теги</t>
+    <t>Учим основные HTML-теги</t>
   </si>
   <si>
     <t>https://www.youtube.com/playlist?list=PLM6XATa8CAG4F9nAIYNS5oAiPotxwLFIr</t>
   </si>
   <si>
-    <t xml:space="preserve">Учим основы CSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Браузер и инструменты разработчика</t>
+    <t>Учим основы CSS</t>
+  </si>
+  <si>
+    <t>Браузер и инструменты разработчика</t>
   </si>
   <si>
     <t>Веб-графика</t>
@@ -101,88 +108,88 @@
     <t>https://youtu.be/YHV35GiXA-w</t>
   </si>
   <si>
-    <t xml:space="preserve">Методология БЭМ</t>
+    <t>Методология БЭМ</t>
   </si>
   <si>
     <t>https://youtu.be/HihYQVuH64U</t>
   </si>
   <si>
-    <t xml:space="preserve">Продолжаем учить CSS Развиваем творчество</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Учимся строить структуру (FLEX) Развиваем анализ макета</t>
+    <t>Продолжаем учить CSS Развиваем творчество</t>
+  </si>
+  <si>
+    <t>Учимся строить структуру (FLEX) Развиваем анализ макета</t>
   </si>
   <si>
     <t>https://www.youtube.com/playlist?list=PLM6XATa8CAG5mPV60dMmjMRrHVW4LmV2x</t>
   </si>
   <si>
-    <t xml:space="preserve">Учим HTML-формы. Основы зваимодействия с бэкендом.</t>
+    <t>Учим HTML-формы. Основы зваимодействия с бэкендом.</t>
   </si>
   <si>
     <t>https://youtu.be/ZYPBTvjZl7M</t>
   </si>
   <si>
-    <t xml:space="preserve">Учим адаптивную верстку. Развиваем удобство пользования.</t>
+    <t>Учим адаптивную верстку. Развиваем удобство пользования.</t>
   </si>
   <si>
     <t>https://youtu.be/XbnAKjjlgc4</t>
   </si>
   <si>
-    <t xml:space="preserve">Учим препроцессор (SASS\SCSS).</t>
+    <t>Учим препроцессор (SASS\SCSS).</t>
   </si>
   <si>
     <t>https://youtu.be/Mrq2ora_p0o</t>
   </si>
   <si>
-    <t xml:space="preserve">Знакомимся со сборщиками GULP WEBPACK PREPROS</t>
+    <t>Знакомимся со сборщиками GULP WEBPACK PREPROS</t>
   </si>
   <si>
     <t>https://www.youtube.com/playlist?list=PLM6XATa8CAG5v6T2a0TTdwyK0nZrSRxFi</t>
   </si>
   <si>
-    <t xml:space="preserve">Учим основы  JavaScript</t>
+    <t>Учим основы  JavaScript</t>
   </si>
   <si>
     <t>https://www.youtube.com/playlist?list=PLM6XATa8CAG7DDIBjNVd78Fv5Ueo930IV</t>
   </si>
   <si>
-    <t xml:space="preserve">Учим GRID</t>
+    <t>Учим GRID</t>
   </si>
   <si>
     <t>https://www.youtube.com/playlist?list=PLM6XATa8CAG5pXQrW_kDaeZb_uIAMNZIm</t>
   </si>
   <si>
-    <t xml:space="preserve">Учим семантику</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Учим доступность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оптимизируем  верстку</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Расширяем кругозор  HTML CSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Верстаем  портфолио</t>
-  </si>
-  <si>
-    <t xml:space="preserve">По желанию: знакомимся с CSS-фреймворками</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Учим JavaScript углубляемся в программирование</t>
-  </si>
-  <si>
-    <t xml:space="preserve">По желанию: учим JS-фреймворк</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Учим сопутствующие программы и инструменты для работы в команде</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Практикуемся, пишем собственные  веб-приложения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Находим работу, продолжаем развиваться HAPPY END</t>
+    <t>Учим семантику</t>
+  </si>
+  <si>
+    <t>Учим доступность</t>
+  </si>
+  <si>
+    <t>Оптимизируем  верстку</t>
+  </si>
+  <si>
+    <t>Расширяем кругозор  HTML CSS</t>
+  </si>
+  <si>
+    <t>Верстаем  портфолио</t>
+  </si>
+  <si>
+    <t>По желанию: знакомимся с CSS-фреймворками</t>
+  </si>
+  <si>
+    <t>Учим JavaScript углубляемся в программирование</t>
+  </si>
+  <si>
+    <t>По желанию: учим JS-фреймворк</t>
+  </si>
+  <si>
+    <t>Учим сопутствующие программы и инструменты для работы в команде</t>
+  </si>
+  <si>
+    <t>Практикуемся, пишем собственные  веб-приложения</t>
+  </si>
+  <si>
+    <t>Находим работу, продолжаем развиваться HAPPY END</t>
   </si>
   <si>
     <t>https://youtu.be/LPdvfRzVoAg</t>
@@ -191,112 +198,112 @@
     <t>Этап</t>
   </si>
   <si>
-    <t xml:space="preserve">синтаксис, вложенность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">основная структура HTML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;body&gt;, &lt;head&gt;, &lt;title&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cтроительный тег &lt;div&gt;</t>
+    <t>синтаксис, вложенность</t>
+  </si>
+  <si>
+    <t>основная структура HTML</t>
+  </si>
+  <si>
+    <t>&lt;body&gt;, &lt;head&gt;, &lt;title&gt;</t>
+  </si>
+  <si>
+    <t>cтроительный тег &lt;div&gt;</t>
   </si>
   <si>
     <t>&lt;div&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">теги заголовков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h1&gt; … &lt;h6&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">теги для контента</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;, &lt;span&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">конструкция списков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ul&gt;, &lt;li&gt;, &lt;ol&gt;, &lt;li&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">картинки и ссылки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;img&gt;, &lt;a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">теги структуры страницы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;header&gt;, &lt;main&gt;, &lt;footer&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">работа с тегами и их атрибутами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">блочные, строчные теги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">основы семантики</t>
+    <t>теги заголовков</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt; … &lt;h6&gt;</t>
+  </si>
+  <si>
+    <t>теги для контента</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;, &lt;span&gt;</t>
+  </si>
+  <si>
+    <t>конструкция списков</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;, &lt;li&gt;, &lt;ol&gt;, &lt;li&gt;</t>
+  </si>
+  <si>
+    <t>картинки и ссылки</t>
+  </si>
+  <si>
+    <t>&lt;img&gt;, &lt;a&gt;</t>
+  </si>
+  <si>
+    <t>теги структуры страницы</t>
+  </si>
+  <si>
+    <t>&lt;header&gt;, &lt;main&gt;, &lt;footer&gt;</t>
+  </si>
+  <si>
+    <t>работа с тегами и их атрибутами</t>
+  </si>
+  <si>
+    <t>блочные, строчные теги</t>
+  </si>
+  <si>
+    <t>основы семантики</t>
   </si>
   <si>
     <t xml:space="preserve">пишем стили внутри HTML и  подключаем отдельным файлом </t>
   </si>
   <si>
-    <t xml:space="preserve">синтаксис и приоритетность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">работа с классками</t>
-  </si>
-  <si>
-    <t xml:space="preserve">браузер Chrome и встароенные средства для разработки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">шрифты и стили текстов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">цвет, размер, декорация</t>
-  </si>
-  <si>
-    <t xml:space="preserve">фоновые изображения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">внешние и внутренние отступы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">размеры блоков и их декорирование</t>
-  </si>
-  <si>
-    <t xml:space="preserve">комбинируем между собой полученные знания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">фундаментальное понятие</t>
-  </si>
-  <si>
-    <t xml:space="preserve">взаимодействие ряда CSS свойств с различными типами объектов: блочными, строчными и блочно-строчными</t>
-  </si>
-  <si>
-    <t xml:space="preserve">работа со свойством display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none, inline, inline-block, block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">псевдоклассы состояния</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:hover, :active, :target, :focus</t>
+    <t>синтаксис и приоритетность</t>
+  </si>
+  <si>
+    <t>работа с классками</t>
+  </si>
+  <si>
+    <t>браузер Chrome и встароенные средства для разработки</t>
+  </si>
+  <si>
+    <t>шрифты и стили текстов</t>
+  </si>
+  <si>
+    <t>цвет, размер, декорация</t>
+  </si>
+  <si>
+    <t>фоновые изображения</t>
+  </si>
+  <si>
+    <t>внешние и внутренние отступы</t>
+  </si>
+  <si>
+    <t>размеры блоков и их декорирование</t>
+  </si>
+  <si>
+    <t>комбинируем между собой полученные знания</t>
+  </si>
+  <si>
+    <t>фундаментальное понятие</t>
+  </si>
+  <si>
+    <t>взаимодействие ряда CSS свойств с различными типами объектов: блочными, строчными и блочно-строчными</t>
+  </si>
+  <si>
+    <t>работа со свойством display</t>
+  </si>
+  <si>
+    <t>none, inline, inline-block, block</t>
+  </si>
+  <si>
+    <t>псевдоклассы состояния</t>
+  </si>
+  <si>
+    <t>:hover, :active, :target, :focus</t>
   </si>
   <si>
     <t xml:space="preserve">псевдоклассы навигации </t>
   </si>
   <si>
-    <t xml:space="preserve">:first-child, :last-child, :first-of-type, :last-of-type, :not()</t>
+    <t>:first-child, :last-child, :first-of-type, :last-of-type, :not()</t>
   </si>
   <si>
     <t>псевдоэлементы</t>
@@ -308,91 +315,91 @@
     <t>позиционирование</t>
   </si>
   <si>
-    <t xml:space="preserve">четкое понимание, в каких случаях объекты теряют свое тело и относительно какого родителя будут позиционироваться</t>
-  </si>
-  <si>
-    <t xml:space="preserve">форматы изображений на web сайтах</t>
-  </si>
-  <si>
-    <t xml:space="preserve">их группы и свойства</t>
-  </si>
-  <si>
-    <t xml:space="preserve">переходы и анимация</t>
+    <t>четкое понимание, в каких случаях объекты теряют свое тело и относительно какого родителя будут позиционироваться</t>
+  </si>
+  <si>
+    <t>форматы изображений на web сайтах</t>
+  </si>
+  <si>
+    <t>их группы и свойства</t>
+  </si>
+  <si>
+    <t>переходы и анимация</t>
   </si>
   <si>
     <t>transition</t>
   </si>
   <si>
-    <t xml:space="preserve">трансформация объектов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transform и его значения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">комбинация с анимацией</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сравнение с позиционированием и отрицательными отступами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">технический этап</t>
-  </si>
-  <si>
-    <t xml:space="preserve">относительные единицы и медиа запросы, основы логики в виде условий и их выполнения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">творческий этап</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI/UX - удобство использования</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SASS в синтаксисе SCSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">только основы синтаксиса и самые простые возможности</t>
+    <t>трансформация объектов</t>
+  </si>
+  <si>
+    <t>transform и его значения</t>
+  </si>
+  <si>
+    <t>комбинация с анимацией</t>
+  </si>
+  <si>
+    <t>сравнение с позиционированием и отрицательными отступами</t>
+  </si>
+  <si>
+    <t>технический этап</t>
+  </si>
+  <si>
+    <t>относительные единицы и медиа запросы, основы логики в виде условий и их выполнения</t>
+  </si>
+  <si>
+    <t>творческий этап</t>
+  </si>
+  <si>
+    <t>UI/UX - удобство использования</t>
+  </si>
+  <si>
+    <t>SASS в синтаксисе SCSS</t>
+  </si>
+  <si>
+    <t>только основы синтаксиса и самые простые возможности</t>
   </si>
   <si>
     <t>синтаксис</t>
   </si>
   <si>
-    <t xml:space="preserve">переменные и типы данных</t>
-  </si>
-  <si>
-    <t xml:space="preserve">массивы, объекты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">условные ветвления и циклы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">основы работы с функциями</t>
+    <t>переменные и типы данных</t>
+  </si>
+  <si>
+    <t>массивы, объекты</t>
+  </si>
+  <si>
+    <t>условные ветвления и циклы</t>
+  </si>
+  <si>
+    <t>основы работы с функциями</t>
   </si>
   <si>
     <t>DOM</t>
   </si>
   <si>
-    <t xml:space="preserve">объектная модель документа, прокрутка, координаты,размеры</t>
+    <t>объектная модель документа, прокрутка, координаты,размеры</t>
   </si>
   <si>
     <t>события</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;aside&gt;, &lt;section&gt;, &lt;nav&gt;, &lt;article&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">только на этом этапе специалист достаточно опытен, что бы осознать важность этих тегов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">работа с аудио и видио</t>
-  </si>
-  <si>
-    <t xml:space="preserve">мета теги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">изучение новых CSS свойств</t>
-  </si>
-  <si>
-    <t xml:space="preserve">рекурсия и стек</t>
+    <t>&lt;aside&gt;, &lt;section&gt;, &lt;nav&gt;, &lt;article&gt;</t>
+  </si>
+  <si>
+    <t>только на этом этапе специалист достаточно опытен, что бы осознать важность этих тегов</t>
+  </si>
+  <si>
+    <t>работа с аудио и видио</t>
+  </si>
+  <si>
+    <t>мета теги</t>
+  </si>
+  <si>
+    <t>изучение новых CSS свойств</t>
+  </si>
+  <si>
+    <t>рекурсия и стек</t>
   </si>
   <si>
     <t>JSON</t>
@@ -404,66 +411,66 @@
     <t>Классы</t>
   </si>
   <si>
-    <t xml:space="preserve">Сетевые запросы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ООП и SOLID</t>
+    <t>Сетевые запросы</t>
+  </si>
+  <si>
+    <t>ООП и SOLID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
-      <color theme="10"/>
-      <sz val="11.000000"/>
-      <u/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="12.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
-      <b/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
       <name val="Calibri"/>
-      <color theme="5" tint="-0.499984740745262"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
       <name val="Calibri"/>
-      <color theme="5" tint="-0.499984740745262"/>
-      <sz val="11.000000"/>
-      <u/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,12 +493,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor theme="9" tint="0.39997558519241921"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
   </fills>
@@ -520,64 +521,64 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="4" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="4" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="5" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
     </xf>
-    <xf fontId="6" fillId="4" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="5" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="5" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -586,10 +587,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <alignment horizontal="left" indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -597,306 +598,26 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Таблица1" ref="A1:B31">
-  <autoFilter ref="A1:B31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:B31">
+  <autoFilter ref="A1:B31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Шаг" dataDxfId="0"/>
-    <tableColumn id="2" name="Ресурс" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Шаг" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ресурс" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
@@ -1099,23 +820,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1:B31"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="1" width="37.85546875"/>
-    <col customWidth="1" min="2" max="2" style="2" width="50.140625"/>
+    <col min="1" max="1" width="37.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1123,17 +846,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1141,7 +864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1149,7 +872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="30">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1157,7 +880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1165,7 +888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="28.5">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1173,7 +896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" ht="28.5">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,12 +904,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,7 +917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1202,7 +925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" ht="28.5">
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1210,7 +933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" ht="28.5">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1218,7 +941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" ht="28.5">
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,7 +949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" ht="28.5">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1234,7 +957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1242,7 +965,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" ht="28.5">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1250,7 +973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" ht="28.5">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1258,7 +981,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" ht="28.5">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1266,57 +989,57 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" ht="28.5">
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" ht="28.5">
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" ht="28.5">
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" ht="28.5">
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" ht="28.5">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
@@ -1326,53 +1049,51 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B4"/>
-    <hyperlink r:id="rId2" ref="B5"/>
-    <hyperlink r:id="rId3" ref="B6"/>
-    <hyperlink r:id="rId4" ref="B7"/>
-    <hyperlink r:id="rId5" ref="B8"/>
-    <hyperlink r:id="rId5" ref="B9"/>
-    <hyperlink r:id="rId6" ref="B11"/>
-    <hyperlink r:id="rId7" ref="B12"/>
-    <hyperlink r:id="rId5" ref="B13"/>
-    <hyperlink r:id="rId8" ref="B14"/>
-    <hyperlink r:id="rId9" ref="B15"/>
-    <hyperlink r:id="rId10" ref="B16"/>
-    <hyperlink r:id="rId11" ref="B17"/>
-    <hyperlink r:id="rId12" ref="B18"/>
-    <hyperlink r:id="rId13" ref="B19"/>
-    <hyperlink r:id="rId14" ref="B20"/>
-    <hyperlink r:id="rId15" ref="B31"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B31" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
   </hyperlinks>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист1">
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" workbookViewId="0">
-      <selection activeCell="B28" activeCellId="0" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="6" width="39.7109375"/>
-    <col customWidth="1" min="2" max="2" style="5" width="73.140625"/>
-    <col min="3" max="16384" style="5" width="8.7109375"/>
+    <col min="1" max="1" width="39.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="73.140625" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>47</v>
       </c>
@@ -1380,19 +1101,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -1400,7 +1121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -1408,7 +1129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -1416,7 +1137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1424,7 +1145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -1432,13 +1153,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" outlineLevel="1">
+    <row r="9" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="13"/>
     </row>
-    <row r="10" outlineLevel="1">
+    <row r="10" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>49</v>
       </c>
@@ -1446,7 +1167,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" outlineLevel="1">
+    <row r="11" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
@@ -1454,7 +1175,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" outlineLevel="1">
+    <row r="12" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>53</v>
       </c>
@@ -1462,7 +1183,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" outlineLevel="1">
+    <row r="13" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>55</v>
       </c>
@@ -1470,7 +1191,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" outlineLevel="1">
+    <row r="14" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>57</v>
       </c>
@@ -1478,7 +1199,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" outlineLevel="1">
+    <row r="15" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>59</v>
       </c>
@@ -1486,7 +1207,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" outlineLevel="1">
+    <row r="16" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>61</v>
       </c>
@@ -1494,25 +1215,25 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" outlineLevel="1">
+    <row r="17" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="14"/>
     </row>
-    <row r="18" outlineLevel="1">
+    <row r="18" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B18" s="14"/>
     </row>
-    <row r="19" outlineLevel="1">
+    <row r="19" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B19" s="14"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>14</v>
       </c>
@@ -1520,31 +1241,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" ht="28.5" outlineLevel="1">
+    <row r="21" spans="1:2" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="12"/>
     </row>
-    <row r="22" outlineLevel="1">
+    <row r="22" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="12"/>
     </row>
-    <row r="23" outlineLevel="1">
+    <row r="23" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="12"/>
     </row>
-    <row r="24" ht="28.5" outlineLevel="1">
+    <row r="24" spans="1:2" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="12"/>
     </row>
-    <row r="25" outlineLevel="1">
+    <row r="25" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>70</v>
       </c>
@@ -1552,93 +1273,93 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" outlineLevel="1">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="17"/>
-    </row>
-    <row r="27" outlineLevel="1">
-      <c r="A27" s="18" t="s">
+      <c r="B26" s="22"/>
+    </row>
+    <row r="27" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="18"/>
-    </row>
-    <row r="28" ht="30" outlineLevel="1">
-      <c r="A28" s="18" t="s">
+      <c r="B27" s="17"/>
+    </row>
+    <row r="28" spans="1:2" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="18"/>
-    </row>
-    <row r="29" ht="28.5" outlineLevel="1">
-      <c r="A29" s="18" t="s">
+      <c r="B28" s="17"/>
+    </row>
+    <row r="29" spans="1:2" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="18"/>
-    </row>
-    <row r="30" ht="28.5" outlineLevel="1">
-      <c r="A30" s="19" t="s">
+      <c r="B29" s="17"/>
+    </row>
+    <row r="30" spans="1:2" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" outlineLevel="1">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" outlineLevel="1">
-      <c r="A32" s="18" t="s">
+    <row r="32" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" outlineLevel="1">
-      <c r="A33" s="18" t="s">
+    <row r="33" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" outlineLevel="1">
-      <c r="A34" s="18" t="s">
+    <row r="34" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" ht="28.5" outlineLevel="1">
-      <c r="A35" s="19" t="s">
+    <row r="35" spans="1:2" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" ht="30" outlineLevel="1">
-      <c r="A36" s="18" t="s">
+    <row r="36" spans="1:2" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="21"/>
-    </row>
-    <row r="38">
+      <c r="B37" s="20"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>16</v>
       </c>
@@ -1646,7 +1367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>18</v>
       </c>
@@ -1654,7 +1375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" ht="28.5" collapsed="1">
+    <row r="40" spans="1:2" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>20</v>
       </c>
@@ -1662,31 +1383,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" hidden="1" outlineLevel="1">
-      <c r="A41" s="19" t="s">
+    <row r="41" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" hidden="1" outlineLevel="1">
-      <c r="A42" s="19" t="s">
+    <row r="42" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" hidden="1" outlineLevel="1">
-      <c r="A43" s="19" t="s">
+    <row r="43" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" ht="28.5">
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>21</v>
       </c>
@@ -1694,7 +1415,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" ht="28.5">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>23</v>
       </c>
@@ -1702,7 +1423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" ht="28.5" collapsed="1">
+    <row r="46" spans="1:2" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>25</v>
       </c>
@@ -1710,23 +1431,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" ht="30" hidden="1" outlineLevel="1">
-      <c r="A47" s="19" t="s">
+    <row r="47" spans="1:2" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" hidden="1" outlineLevel="1">
-      <c r="A48" s="19" t="s">
+    <row r="48" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" collapsed="1">
+    <row r="49" spans="1:2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>27</v>
       </c>
@@ -1734,19 +1455,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" hidden="1" outlineLevel="1">
-      <c r="A50" s="19" t="s">
+    <row r="50" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
         <v>100</v>
       </c>
       <c r="B50" s="16"/>
     </row>
-    <row r="51" ht="30" hidden="1" outlineLevel="1">
-      <c r="A51" s="19" t="s">
+    <row r="51" spans="1:2" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B51" s="16"/>
     </row>
-    <row r="52" ht="28.5">
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>29</v>
       </c>
@@ -1754,7 +1475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" collapsed="1">
+    <row r="53" spans="1:2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>31</v>
       </c>
@@ -1762,51 +1483,51 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" hidden="1" outlineLevel="1">
-      <c r="A54" s="19" t="s">
+    <row r="54" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="20"/>
-    </row>
-    <row r="55" hidden="1" outlineLevel="1">
-      <c r="A55" s="19" t="s">
+      <c r="B54" s="19"/>
+    </row>
+    <row r="55" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="20"/>
-    </row>
-    <row r="56" hidden="1" outlineLevel="1">
-      <c r="A56" s="19" t="s">
+      <c r="B55" s="19"/>
+    </row>
+    <row r="56" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="20"/>
-    </row>
-    <row r="57" hidden="1" outlineLevel="1">
-      <c r="A57" s="19" t="s">
+      <c r="B56" s="19"/>
+    </row>
+    <row r="57" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="20"/>
-    </row>
-    <row r="58" hidden="1" outlineLevel="1">
-      <c r="A58" s="19" t="s">
+      <c r="B57" s="19"/>
+    </row>
+    <row r="58" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B58" s="20"/>
-    </row>
-    <row r="59" hidden="1" outlineLevel="1">
-      <c r="A59" s="19" t="s">
+      <c r="B58" s="19"/>
+    </row>
+    <row r="59" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="60" hidden="1" outlineLevel="1">
-      <c r="A60" s="19" t="s">
+    <row r="60" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B60" s="20"/>
-    </row>
-    <row r="61">
+      <c r="B60" s="19"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>33</v>
       </c>
@@ -1814,159 +1535,157 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" collapsed="1">
+    <row r="62" spans="1:2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="21"/>
-    </row>
-    <row r="63" ht="30" hidden="1" outlineLevel="1">
-      <c r="A63" s="19" t="s">
+      <c r="B62" s="20"/>
+    </row>
+    <row r="63" spans="1:2" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="21"/>
-    </row>
-    <row r="65">
+      <c r="B64" s="20"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="21"/>
-    </row>
-    <row r="66" collapsed="1">
+      <c r="B65" s="20"/>
+    </row>
+    <row r="66" spans="1:2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B66" s="21"/>
-    </row>
-    <row r="67" hidden="1" outlineLevel="1">
-      <c r="A67" s="19" t="s">
+      <c r="B66" s="20"/>
+    </row>
+    <row r="67" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B67" s="20"/>
-    </row>
-    <row r="68" hidden="1" outlineLevel="1">
-      <c r="A68" s="19" t="s">
+      <c r="B67" s="19"/>
+    </row>
+    <row r="68" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B68" s="20"/>
-    </row>
-    <row r="69" hidden="1" outlineLevel="1">
-      <c r="A69" s="19" t="s">
+      <c r="B68" s="19"/>
+    </row>
+    <row r="69" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B69" s="20"/>
-    </row>
-    <row r="70">
+      <c r="B69" s="19"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B70" s="21"/>
-    </row>
-    <row r="71" ht="30">
+      <c r="B70" s="20"/>
+    </row>
+    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B71" s="21"/>
-    </row>
-    <row r="72" ht="30" collapsed="1">
+      <c r="B71" s="20"/>
+    </row>
+    <row r="72" spans="1:2" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B72" s="21"/>
-    </row>
-    <row r="73" hidden="1" outlineLevel="1">
-      <c r="A73" s="19" t="s">
+      <c r="B72" s="20"/>
+    </row>
+    <row r="73" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B73" s="20"/>
-    </row>
-    <row r="74" hidden="1" outlineLevel="1">
-      <c r="A74" s="19" t="s">
+      <c r="B73" s="19"/>
+    </row>
+    <row r="74" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B74" s="20"/>
-    </row>
-    <row r="75" hidden="1" outlineLevel="1">
-      <c r="A75" s="19" t="s">
+      <c r="B74" s="19"/>
+    </row>
+    <row r="75" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B75" s="20"/>
-    </row>
-    <row r="76" hidden="1" outlineLevel="1">
-      <c r="A76" s="19" t="s">
+      <c r="B75" s="19"/>
+    </row>
+    <row r="76" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B76" s="20"/>
-    </row>
-    <row r="77" hidden="1" outlineLevel="1">
-      <c r="A77" s="19" t="s">
+      <c r="B76" s="19"/>
+    </row>
+    <row r="77" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B77" s="20"/>
-    </row>
-    <row r="78" hidden="1" outlineLevel="1">
-      <c r="A78" s="19" t="s">
+      <c r="B77" s="19"/>
+    </row>
+    <row r="78" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B78" s="20"/>
-    </row>
-    <row r="79">
+      <c r="B78" s="19"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B79" s="21"/>
-    </row>
-    <row r="80" ht="30">
+      <c r="B79" s="20"/>
+    </row>
+    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B80" s="21"/>
-    </row>
-    <row r="81" ht="30">
+      <c r="B80" s="20"/>
+    </row>
+    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B81" s="21"/>
-    </row>
-    <row r="82" ht="30">
+      <c r="B81" s="20"/>
+    </row>
+    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="21" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B4"/>
-    <hyperlink r:id="rId2" ref="B5"/>
-    <hyperlink r:id="rId3" ref="B6"/>
-    <hyperlink r:id="rId4" ref="B7"/>
-    <hyperlink r:id="rId5" ref="B8"/>
-    <hyperlink r:id="rId5" ref="B20"/>
-    <hyperlink r:id="rId6" ref="B38"/>
-    <hyperlink r:id="rId7" ref="B39"/>
-    <hyperlink r:id="rId5" ref="B40"/>
-    <hyperlink r:id="rId8" ref="B44"/>
-    <hyperlink r:id="rId9" ref="B45"/>
-    <hyperlink r:id="rId10" ref="B46"/>
-    <hyperlink r:id="rId11" ref="B49"/>
-    <hyperlink r:id="rId12" ref="B52"/>
-    <hyperlink r:id="rId13" ref="B53"/>
-    <hyperlink r:id="rId14" ref="B61"/>
-    <hyperlink r:id="rId15" ref="B82"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B20" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B38" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B39" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B40" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B44" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B45" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="B46" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="B49" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="B52" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="B53" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="B61" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="B82" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
   </hyperlinks>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
 </worksheet>
 </file>